--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mdk-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mdk-Itga6.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H2">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I2">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J2">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>103.4766596666667</v>
+        <v>139.728498</v>
       </c>
       <c r="N2">
-        <v>310.429979</v>
+        <v>419.185494</v>
       </c>
       <c r="O2">
-        <v>0.877785331764719</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="P2">
-        <v>0.8777853317647188</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="Q2">
-        <v>217.1859192544507</v>
+        <v>83.55396228688599</v>
       </c>
       <c r="R2">
-        <v>1954.673273290056</v>
+        <v>751.985660581974</v>
       </c>
       <c r="S2">
-        <v>0.0950161944061057</v>
+        <v>0.03030215761970713</v>
       </c>
       <c r="T2">
-        <v>0.09501619440610568</v>
+        <v>0.03030215761970713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H3">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I3">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J3">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.479739</v>
       </c>
       <c r="O3">
-        <v>0.007011818020336602</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="P3">
-        <v>0.0070118180203366</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="Q3">
-        <v>1.734898143410667</v>
+        <v>0.4942728740687778</v>
       </c>
       <c r="R3">
-        <v>15.614083290696</v>
+        <v>4.448455866619001</v>
       </c>
       <c r="S3">
-        <v>0.0007589968071363436</v>
+        <v>0.0001792558261420538</v>
       </c>
       <c r="T3">
-        <v>0.0007589968071363433</v>
+        <v>0.0001792558261420538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.098888</v>
+        <v>0.5979736666666666</v>
       </c>
       <c r="H4">
-        <v>6.296664</v>
+        <v>1.793921</v>
       </c>
       <c r="I4">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="J4">
-        <v>0.1082453658858517</v>
+        <v>0.03342655292740804</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>40.741645</v>
       </c>
       <c r="O4">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="P4">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="Q4">
-        <v>28.50404993025333</v>
+        <v>8.120810282227222</v>
       </c>
       <c r="R4">
-        <v>256.53644937228</v>
+        <v>73.087292540045</v>
       </c>
       <c r="S4">
-        <v>0.01247017467260965</v>
+        <v>0.002945139481558856</v>
       </c>
       <c r="T4">
-        <v>0.01247017467260964</v>
+        <v>0.002945139481558856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>47.625431</v>
       </c>
       <c r="I5">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J5">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.4766596666667</v>
+        <v>139.728498</v>
       </c>
       <c r="N5">
-        <v>310.429979</v>
+        <v>419.185494</v>
       </c>
       <c r="O5">
-        <v>0.877785331764719</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="P5">
-        <v>0.8777853317647188</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="Q5">
-        <v>1642.706838355105</v>
+        <v>2218.209980077546</v>
       </c>
       <c r="R5">
-        <v>14784.36154519595</v>
+        <v>19963.88982069791</v>
       </c>
       <c r="S5">
-        <v>0.7186642340405289</v>
+        <v>0.8044687123170342</v>
       </c>
       <c r="T5">
-        <v>0.7186642340405287</v>
+        <v>0.8044687123170342</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>47.625431</v>
       </c>
       <c r="I6">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J6">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.479739</v>
       </c>
       <c r="O6">
-        <v>0.007011818020336602</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="P6">
-        <v>0.0070118180203366</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="Q6">
         <v>13.12207096027878</v>
@@ -818,10 +818,10 @@
         <v>118.098638642509</v>
       </c>
       <c r="S6">
-        <v>0.005740746221728242</v>
+        <v>0.004758925269995937</v>
       </c>
       <c r="T6">
-        <v>0.00574074622172824</v>
+        <v>0.004758925269995937</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>47.625431</v>
       </c>
       <c r="I7">
-        <v>0.8187243600843848</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="J7">
-        <v>0.8187243600843847</v>
+        <v>0.8874158839838097</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>40.741645</v>
       </c>
       <c r="O7">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="P7">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="Q7">
         <v>215.5931558637772</v>
@@ -880,10 +880,10 @@
         <v>1940.338402773995</v>
       </c>
       <c r="S7">
-        <v>0.09431937982212775</v>
+        <v>0.07818824639677949</v>
       </c>
       <c r="T7">
-        <v>0.09431937982212772</v>
+        <v>0.07818824639677949</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>4.248192</v>
       </c>
       <c r="I8">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J8">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>103.4766596666667</v>
+        <v>139.728498</v>
       </c>
       <c r="N8">
-        <v>310.429979</v>
+        <v>419.185494</v>
       </c>
       <c r="O8">
-        <v>0.877785331764719</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="P8">
-        <v>0.8777853317647188</v>
+        <v>0.9065295391216045</v>
       </c>
       <c r="Q8">
-        <v>146.5295725942186</v>
+        <v>197.864495791872</v>
       </c>
       <c r="R8">
-        <v>1318.766153347968</v>
+        <v>1780.780462126848</v>
       </c>
       <c r="S8">
-        <v>0.06410490331808445</v>
+        <v>0.07175866918486316</v>
       </c>
       <c r="T8">
-        <v>0.06410490331808444</v>
+        <v>0.07175866918486316</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.248192</v>
       </c>
       <c r="I9">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J9">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>2.479739</v>
       </c>
       <c r="O9">
-        <v>0.007011818020336602</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="P9">
-        <v>0.0070118180203366</v>
+        <v>0.005362677585431591</v>
       </c>
       <c r="Q9">
         <v>1.170489709098667</v>
@@ -1004,10 +1004,10 @@
         <v>10.534407381888</v>
       </c>
       <c r="S9">
-        <v>0.0005120749914720172</v>
+        <v>0.0004244964892935999</v>
       </c>
       <c r="T9">
-        <v>0.000512074991472017</v>
+        <v>0.0004244964892935999</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.248192</v>
       </c>
       <c r="I10">
-        <v>0.07303027402976368</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="J10">
-        <v>0.07303027402976367</v>
+        <v>0.07915756308878232</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>40.741645</v>
       </c>
       <c r="O10">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="P10">
-        <v>0.1152028502149446</v>
+        <v>0.0881077832929639</v>
       </c>
       <c r="Q10">
-        <v>19.23092559509333</v>
+        <v>19.23092559509334</v>
       </c>
       <c r="R10">
         <v>173.07833035584</v>
       </c>
       <c r="S10">
-        <v>0.008413295720207225</v>
+        <v>0.00697439741462555</v>
       </c>
       <c r="T10">
-        <v>0.008413295720207221</v>
+        <v>0.00697439741462555</v>
       </c>
     </row>
   </sheetData>
